--- a/Data_processed/industry/scope 1 & downsrtream.xlsx
+++ b/Data_processed/industry/scope 1 & downsrtream.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/scope 1 & downsrtream.xlsx
+++ b/Data_processed/industry/scope 1 & downsrtream.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/scope 1 & downsrtream.xlsx
+++ b/Data_processed/industry/scope 1 & downsrtream.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.7882653e-05</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.5432224166</v>
+        <v>29.8</v>
       </c>
       <c r="E4" t="n">
-        <v>29.8</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.00083090307</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.1232224166</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.00075283164</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,7 +656,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.27913798737</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -642,7 +687,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.598737e-05</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40.95346572</v>
+        <v>273.0000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>273.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.0076119644</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.642463378316</v>
+        <v>0.006</v>
       </c>
       <c r="E9" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.6729592e-07</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.33894816695</v>
+        <v>0.437</v>
       </c>
       <c r="E10" t="n">
-        <v>0.437</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1.218472e-05</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,7 +811,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.0820950947635</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.820830258835</v>
+        <v>0.02</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>5.5765307e-07</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3780.000240778766</v>
+        <v>25200</v>
       </c>
       <c r="E13" t="n">
-        <v>25200</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.70264287</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>229.51231985878</v>
+        <v>1530</v>
       </c>
       <c r="E14" t="n">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.04266046</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>871.5</v>
+        <v>5810</v>
       </c>
       <c r="E15" t="n">
-        <v>5810</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.16199822</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>115.65028491495</v>
+        <v>771.0000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>771.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.021497526</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.0751549760486</v>
+        <v>0.501</v>
       </c>
       <c r="E17" t="n">
-        <v>0.501</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.3969209e-05</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,7 +1028,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10.0215</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1014,7 +1059,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23.02023</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1045,7 +1090,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5.4015509</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1076,7 +1121,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13.40034</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1107,7 +1152,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6.12</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1138,7 +1183,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5.380684</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1169,7 +1214,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>16.30636127787</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1200,7 +1245,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5.225122119</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1231,7 +1276,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.974927919</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1262,7 +1307,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2.5277348056</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1293,7 +1338,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.50931432</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1324,7 +1369,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6.434570300000001</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1355,7 +1400,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9.338287751693999</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1386,7 +1431,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2.782805949</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3.704602228</v>
+        <v>20.6</v>
       </c>
       <c r="E32" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.00057438266</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,7 +1493,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.0007081367</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1479,7 +1524,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.952490188616</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1510,7 +1555,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4.1304210138</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1541,7 +1586,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.166462447</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1572,7 +1617,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>10.3429445450922</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1603,7 +1648,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>18.08109084</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1634,7 +1679,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5.0107195109927</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1665,7 +1710,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>11.324562805581</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1696,7 +1741,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.4461776141</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1727,7 +1772,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5.8032739974</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1758,7 +1803,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.167272055</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1789,7 +1834,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>11.6280513017629</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1820,7 +1865,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.9442012034</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1851,13 +1896,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.743315173</v>
+        <v>6.34</v>
       </c>
       <c r="E46" t="n">
-        <v>6.34</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.00017677602</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1882,7 +1927,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>6.610846650976001</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1913,13 +1958,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3.39198782211</v>
+        <v>0.044</v>
       </c>
       <c r="E48" t="n">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1.2268368e-06</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1944,7 +1989,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.0021294387</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1975,7 +2020,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.048662735575</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2006,7 +2051,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.02816762752</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -2037,7 +2082,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>40.1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -2053,5 +2098,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>